--- a/project/helpers/api/global_website_ranking_50.xlsx
+++ b/project/helpers/api/global_website_ranking_50.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="290">
   <si>
     <t>Site</t>
   </si>
@@ -191,22 +192,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>검색엔진</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>포털</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TODO</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -216,10 +201,6 @@
   </si>
   <si>
     <t>샘플링</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -237,23 +218,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>글로벌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>중국</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>360.cn</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Yahoo.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>위키</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -287,14 +256,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>서비스</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>스레드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TBD</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -303,7 +264,889 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>인프라</t>
+    <t>인도네시아어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플링</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원페이지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비고</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VK뉴스/고객센터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://opensupport.alipay.com/support/helpcenter/190/201602479167</t>
+  </si>
+  <si>
+    <t>포럼?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopify.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <r>
+      <t>Alexa</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> top 50 global sites</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(As of October 14, 2020)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Principal country/territory</t>
+  </si>
+  <si>
+    <t>Google Search</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>1 ()</t>
+  </si>
+  <si>
+    <t>Internet services and products</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>United States</t>
+    </r>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>2 ()</t>
+  </si>
+  <si>
+    <t>Video sharing</t>
+  </si>
+  <si>
+    <t>Tmall</t>
+  </si>
+  <si>
+    <t>tmall.com</t>
+  </si>
+  <si>
+    <t>3 (N/A)</t>
+  </si>
+  <si>
+    <t>Internet-related services</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>China</t>
+    </r>
+  </si>
+  <si>
+    <t>Baidu</t>
+  </si>
+  <si>
+    <t>baidu.com</t>
+  </si>
+  <si>
+    <t>4 (1)</t>
+  </si>
+  <si>
+    <t>Internet-related services and products</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>5 (1)</t>
+  </si>
+  <si>
+    <t>Social networking</t>
+  </si>
+  <si>
+    <t>Tencent QQ</t>
+  </si>
+  <si>
+    <t>qq.com</t>
+  </si>
+  <si>
+    <t>6 (1)</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Sohu</t>
+  </si>
+  <si>
+    <t>sohu.com</t>
+  </si>
+  <si>
+    <t>7 (2)</t>
+  </si>
+  <si>
+    <t>Taobao</t>
+  </si>
+  <si>
+    <t>taobao.com</t>
+  </si>
+  <si>
+    <t>8 (1)</t>
+  </si>
+  <si>
+    <t>Online shopping</t>
+  </si>
+  <si>
+    <t>Haosou</t>
+  </si>
+  <si>
+    <t>360.cn</t>
+  </si>
+  <si>
+    <t>9 (1)</t>
+  </si>
+  <si>
+    <t>Internet security and web search engine</t>
+  </si>
+  <si>
+    <t>Jingdong Mall</t>
+  </si>
+  <si>
+    <t>jd.com</t>
+  </si>
+  <si>
+    <t>10 (1)</t>
+  </si>
+  <si>
+    <t>Portal and media</t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>yahoo.com</t>
+  </si>
+  <si>
+    <t>11 (1)</t>
+  </si>
+  <si>
+    <t>Portal and Media</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>12 (1)</t>
+  </si>
+  <si>
+    <t>E-commerce and cloud computing</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>wikipedia.org</t>
+  </si>
+  <si>
+    <t>13 (1)</t>
+  </si>
+  <si>
+    <t>Encyclopedia</t>
+  </si>
+  <si>
+    <t>Sina Corp</t>
+  </si>
+  <si>
+    <t>sina.com.cn</t>
+  </si>
+  <si>
+    <t>14 (1)</t>
+  </si>
+  <si>
+    <t>Portal and instant messaging</t>
+  </si>
+  <si>
+    <t>Sina Weibo</t>
+  </si>
+  <si>
+    <t>weibo.com</t>
+  </si>
+  <si>
+    <t>15 (1)</t>
+  </si>
+  <si>
+    <t>Zoom Video Communications</t>
+  </si>
+  <si>
+    <t>zoom.us</t>
+  </si>
+  <si>
+    <t>16 ()</t>
+  </si>
+  <si>
+    <t>Videotelephony</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>reddit.com</t>
+  </si>
+  <si>
+    <t>17 ()</t>
+  </si>
+  <si>
+    <t>Social news and entertainment</t>
+  </si>
+  <si>
+    <t>Windows Live</t>
+  </si>
+  <si>
+    <t>live.com</t>
+  </si>
+  <si>
+    <t>18 (3)</t>
+  </si>
+  <si>
+    <t>Software plus services</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>netflix.com</t>
+  </si>
+  <si>
+    <t>19 (1)</t>
+  </si>
+  <si>
+    <t>Streaming TV and movies</t>
+  </si>
+  <si>
+    <t>Xinhua News Agency</t>
+  </si>
+  <si>
+    <t>xinhuanet.com</t>
+  </si>
+  <si>
+    <t>20 (1)</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>microsoft.com</t>
+  </si>
+  <si>
+    <t>21 ()</t>
+  </si>
+  <si>
+    <t>Software and technology</t>
+  </si>
+  <si>
+    <t>Okezone</t>
+  </si>
+  <si>
+    <t>okezone.com</t>
+  </si>
+  <si>
+    <t>22 (2)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Indonesia</t>
+    </r>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>vk.com</t>
+  </si>
+  <si>
+    <t>23 (1)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Russia</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>office.com</t>
+  </si>
+  <si>
+    <t>24 ()</t>
+  </si>
+  <si>
+    <t>Online office suite</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>instagram.com</t>
+  </si>
+  <si>
+    <t>25 (2)</t>
+  </si>
+  <si>
+    <t>Photo sharing and social media</t>
+  </si>
+  <si>
+    <t>Alipay</t>
+  </si>
+  <si>
+    <t>alipay.com</t>
+  </si>
+  <si>
+    <t>26 (1)</t>
+  </si>
+  <si>
+    <t>Payment system</t>
+  </si>
+  <si>
+    <t>CSDN</t>
+  </si>
+  <si>
+    <t>csdn.net</t>
+  </si>
+  <si>
+    <t>27 ()</t>
+  </si>
+  <si>
+    <t>Technology news and Internet forum</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <t>myshopify.com</t>
+  </si>
+  <si>
+    <t>28 (2)</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canada</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft Online</t>
+  </si>
+  <si>
+    <t>microsoftonline.com</t>
+  </si>
+  <si>
+    <t>29 (8)</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Yahoo! Japan</t>
+  </si>
+  <si>
+    <t>yahoo.co.jp</t>
+  </si>
+  <si>
+    <t>30 (2)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Japan</t>
+    </r>
+  </si>
+  <si>
+    <t>BongaCams</t>
+  </si>
+  <si>
+    <t>bongacams.com</t>
+  </si>
+  <si>
+    <t>31 (2)</t>
+  </si>
+  <si>
+    <t>Pornography</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Netherlands</t>
+    </r>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>twitch.tv</t>
+  </si>
+  <si>
+    <t>32 (1)</t>
+  </si>
+  <si>
+    <t>Streaming primarily on video games</t>
+  </si>
+  <si>
+    <t>Zhanqi TV</t>
+  </si>
+  <si>
+    <t>zhanqi.tv</t>
+  </si>
+  <si>
+    <t>33 (3)</t>
+  </si>
+  <si>
+    <t>Panda TV</t>
+  </si>
+  <si>
+    <t>panda.tv</t>
+  </si>
+  <si>
+    <t>34 (2)</t>
+  </si>
+  <si>
+    <t>Google Hong Kong</t>
+  </si>
+  <si>
+    <t>google.com.hk</t>
+  </si>
+  <si>
+    <t>35 (2)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hong Kong</t>
+    </r>
+  </si>
+  <si>
+    <t>Naver</t>
+  </si>
+  <si>
+    <t>naver.com</t>
+  </si>
+  <si>
+    <t>36 (1)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>South Korea</t>
+    </r>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>bing.com</t>
+  </si>
+  <si>
+    <t>37 (3)</t>
+  </si>
+  <si>
+    <t>Web search engine</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>ebay.com</t>
+  </si>
+  <si>
+    <t>38 ()</t>
+  </si>
+  <si>
+    <t>Online auctions and shopping</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>aliexpress.com</t>
+  </si>
+  <si>
+    <t>39 (3)</t>
+  </si>
+  <si>
+    <t>Amazon India</t>
+  </si>
+  <si>
+    <t>amazon.in</t>
+  </si>
+  <si>
+    <t>40 ()</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>India</t>
+    </r>
+  </si>
+  <si>
+    <t>Tianya Club</t>
+  </si>
+  <si>
+    <t>tianya.cn</t>
+  </si>
+  <si>
+    <t>41 ()</t>
+  </si>
+  <si>
+    <t>Internet forum</t>
+  </si>
+  <si>
+    <t>China Internet Information Center</t>
+  </si>
+  <si>
+    <t>china.com.cn</t>
+  </si>
+  <si>
+    <t>42 (3)</t>
+  </si>
+  <si>
+    <t>Google India</t>
+  </si>
+  <si>
+    <t>google.co.in</t>
+  </si>
+  <si>
+    <t>43 (2)</t>
+  </si>
+  <si>
+    <t>Apple Inc</t>
+  </si>
+  <si>
+    <t>apple.com</t>
+  </si>
+  <si>
+    <t>44 (N/A)</t>
+  </si>
+  <si>
+    <t>Phone maker</t>
+  </si>
+  <si>
+    <t>Amazon Japan</t>
+  </si>
+  <si>
+    <t>amazon.co.jp</t>
+  </si>
+  <si>
+    <t>45 (1)</t>
+  </si>
+  <si>
+    <t>Tribun News</t>
+  </si>
+  <si>
+    <t>tribunnews.com</t>
+  </si>
+  <si>
+    <t>46 (4)</t>
+  </si>
+  <si>
+    <t>LiveJasmin</t>
+  </si>
+  <si>
+    <t>livejasmin.com</t>
+  </si>
+  <si>
+    <t>47 (N/A)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luxembourg</t>
+    </r>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>adobe.com</t>
+  </si>
+  <si>
+    <t>48 (N/A)</t>
+  </si>
+  <si>
+    <t>Media software</t>
+  </si>
+  <si>
+    <t>Chaturbate</t>
+  </si>
+  <si>
+    <t>chaturbate.com</t>
+  </si>
+  <si>
+    <t>49 (2)</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>50 (7)</t>
+  </si>
+  <si>
+    <t> United States</t>
+  </si>
+  <si>
+    <t> China</t>
+  </si>
+  <si>
+    <t> Indonesia</t>
+  </si>
+  <si>
+    <t> Russia</t>
+  </si>
+  <si>
+    <t> Canada</t>
+  </si>
+  <si>
+    <t> Japan</t>
+  </si>
+  <si>
+    <t> Netherlands</t>
+  </si>
+  <si>
+    <t> Hong Kong</t>
+  </si>
+  <si>
+    <t> South Korea</t>
+  </si>
+  <si>
+    <t> India</t>
+  </si>
+  <si>
+    <t> Luxembourg</t>
+  </si>
+  <si>
+    <t>서비스종료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>April 16, 2020</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +1154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,16 +1201,50 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -384,6 +1261,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -393,7 +1311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +1326,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -425,6 +1364,5291 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="1517650"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="1517650"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="1955800"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="1955800"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="2393950"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="2628900"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="2628900"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8" descr="Increase"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="2978150"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="2978150"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="3416300"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="3416300"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="3854450"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="3854450"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="4076700"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="4076700"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="4311650"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="4311650"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18" descr="Increase"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="4775200"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="4775200"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="5213350"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="5213350"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="5651500"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="5651500"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="6089650"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="6089650"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="6527800"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="6527800"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="6877050"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="6877050"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="7315200"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="7315200"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="8185150"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="8185150"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="8623300"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="8623300"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="9061450"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="9061450"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="9499600"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 39" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="9499600"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="10153650"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="10153650"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="10591800"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="그림 43" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Indonesia.svg/23px-Flag_of_Indonesia.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="10591800"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="11029950"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45" descr="https://upload.wikimedia.org/wikipedia/en/thumb/f/f3/Flag_of_Russia.svg/23px-Flag_of_Russia.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="11029950"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="그림 46" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="11264900"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="그림 47" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="11264900"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="11703050"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="11703050"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="12141200"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="12141200"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="12376150"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="그림 53" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="12376150"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="12725400"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/23px-Flag_of_Canada_%28Pantone%29.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="12725400"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56" descr="Increase"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="12947650"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="그림 57" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="12947650"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="13385800"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 59" descr="https://upload.wikimedia.org/wikipedia/en/thumb/9/9e/Flag_of_Japan.svg/23px-Flag_of_Japan.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="13385800"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="그림 60" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="13823950"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="그림 61" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/23px-Flag_of_the_Netherlands.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="13823950"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="14478000"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="그림 63" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="14478000"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 64" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="14916150"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="그림 65" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="14916150"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="그림 66" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="15354300"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="그림 67" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="15354300"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="15703550"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="그림 69" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/5/5b/Flag_of_Hong_Kong.svg/23px-Flag_of_Hong_Kong.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="15703550"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="16357600"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="그림 71" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Flag_of_South_Korea.svg/23px-Flag_of_South_Korea.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="16357600"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="그림 72" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="16795750"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="16795750"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="17233900"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="그림 75" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="17233900"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="그림 76" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="17672050"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="그림 77" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="17672050"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="그림 78" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="18110200"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="그림 79" descr="https://upload.wikimedia.org/wikipedia/en/thumb/4/41/Flag_of_India.svg/23px-Flag_of_India.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="18110200"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="그림 80" descr="Steady"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="18548350"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="그림 81" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="18548350"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="그림 82" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="18986500"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="그림 83" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/23px-Flag_of_the_People%27s_Republic_of_China.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="18986500"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="그림 84" descr="Increase"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="20072350"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="그림 85" descr="https://upload.wikimedia.org/wikipedia/en/thumb/4/41/Flag_of_India.svg/23px-Flag_of_India.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="20072350"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="그림 86" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="20510500"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="그림 87" descr="Increase"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="20948650"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="그림 88" descr="https://upload.wikimedia.org/wikipedia/en/thumb/9/9e/Flag_of_Japan.svg/23px-Flag_of_Japan.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="20948650"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="그림 89" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="21386800"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="그림 90" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Indonesia.svg/23px-Flag_of_Indonesia.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="21386800"/>
+          <a:ext cx="222250" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="그림 91" descr="https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/Flag_of_Luxembourg.svg/23px-Flag_of_Luxembourg.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="21824950"/>
+          <a:ext cx="222250" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="그림 92" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="22479000"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="그림 93" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="22917150"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="그림 94" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="22917150"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="그림 95" descr="Decrease"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1320800" y="23355300"/>
+          <a:ext cx="107950" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="그림 96" descr="https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/23px-Flag_of_the_United_States.svg.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2641600" y="23355300"/>
+          <a:ext cx="222250" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,18 +6914,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,485 +6947,743 @@
         <v>50</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I14" t="s">
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="H18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="H22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>279</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+      <c r="H47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>270</v>
+      </c>
+      <c r="H49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -1259,4 +7743,1011 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="68.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="85.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E52" r:id="rId1" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A52" r:id="rId2" tooltip="Twitter" display="https://en.wikipedia.org/wiki/Twitter"/>
+    <hyperlink ref="E51" r:id="rId3" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A51" r:id="rId4" tooltip="Chaturbate" display="https://en.wikipedia.org/wiki/Chaturbate"/>
+    <hyperlink ref="E50" r:id="rId5" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A50" r:id="rId6" tooltip="Adobe Inc." display="https://en.wikipedia.org/wiki/Adobe_Inc."/>
+    <hyperlink ref="E49" r:id="rId7" tooltip="Luxembourg" display="https://en.wikipedia.org/wiki/Luxembourg"/>
+    <hyperlink ref="A49" r:id="rId8" tooltip="LiveJasmin" display="https://en.wikipedia.org/wiki/LiveJasmin"/>
+    <hyperlink ref="E48" r:id="rId9" tooltip="Indonesia" display="https://en.wikipedia.org/wiki/Indonesia"/>
+    <hyperlink ref="A48" r:id="rId10" tooltip="Tribun News" display="https://en.wikipedia.org/wiki/Tribun_News"/>
+    <hyperlink ref="E47" r:id="rId11" tooltip="Japan" display="https://en.wikipedia.org/wiki/Japan"/>
+    <hyperlink ref="A47" r:id="rId12" tooltip="Amazon Japan" display="https://en.wikipedia.org/wiki/Amazon_Japan"/>
+    <hyperlink ref="E46" r:id="rId13" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A46" r:id="rId14" tooltip="Apple Inc" display="https://en.wikipedia.org/wiki/Apple_Inc"/>
+    <hyperlink ref="E45" r:id="rId15" tooltip="India" display="https://en.wikipedia.org/wiki/India"/>
+    <hyperlink ref="A45" r:id="rId16" tooltip="Google India (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Google_India&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="E44" r:id="rId17" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A44" r:id="rId18" tooltip="China Internet Information Center" display="https://en.wikipedia.org/wiki/China_Internet_Information_Center"/>
+    <hyperlink ref="E43" r:id="rId19" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A43" r:id="rId20" tooltip="Tianya Club" display="https://en.wikipedia.org/wiki/Tianya_Club"/>
+    <hyperlink ref="E42" r:id="rId21" tooltip="India" display="https://en.wikipedia.org/wiki/India"/>
+    <hyperlink ref="A42" r:id="rId22" tooltip="Amazon India" display="https://en.wikipedia.org/wiki/Amazon_India"/>
+    <hyperlink ref="E41" r:id="rId23" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A41" r:id="rId24" tooltip="AliExpress" display="https://en.wikipedia.org/wiki/AliExpress"/>
+    <hyperlink ref="E40" r:id="rId25" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A40" r:id="rId26" tooltip="EBay" display="https://en.wikipedia.org/wiki/EBay"/>
+    <hyperlink ref="E39" r:id="rId27" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A39" r:id="rId28" tooltip="Bing (search engine)" display="https://en.wikipedia.org/wiki/Bing_(search_engine)"/>
+    <hyperlink ref="E38" r:id="rId29" tooltip="South Korea" display="https://en.wikipedia.org/wiki/South_Korea"/>
+    <hyperlink ref="A38" r:id="rId30" tooltip="Naver" display="https://en.wikipedia.org/wiki/Naver"/>
+    <hyperlink ref="E37" r:id="rId31" tooltip="Hong Kong" display="https://en.wikipedia.org/wiki/Hong_Kong"/>
+    <hyperlink ref="A37" r:id="rId32" tooltip="Google Hong Kong" display="https://en.wikipedia.org/wiki/Google_Hong_Kong"/>
+    <hyperlink ref="E36" r:id="rId33" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A36" r:id="rId34" tooltip="Panda TV (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Panda_TV&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="E35" r:id="rId35" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A35" r:id="rId36" tooltip="Zhanqi TV (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Zhanqi_TV&amp;action=edit&amp;redlink=1"/>
+    <hyperlink ref="E34" r:id="rId37" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A34" r:id="rId38" tooltip="Twitch (service)" display="https://en.wikipedia.org/wiki/Twitch_(service)"/>
+    <hyperlink ref="E33" r:id="rId39" tooltip="Netherlands" display="https://en.wikipedia.org/wiki/Netherlands"/>
+    <hyperlink ref="A33" r:id="rId40" tooltip="BongaCams" display="https://en.wikipedia.org/wiki/BongaCams"/>
+    <hyperlink ref="E32" r:id="rId41" tooltip="Japan" display="https://en.wikipedia.org/wiki/Japan"/>
+    <hyperlink ref="A32" r:id="rId42" tooltip="Yahoo! Japan" display="https://en.wikipedia.org/wiki/Yahoo!_Japan"/>
+    <hyperlink ref="E31" r:id="rId43" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A31" r:id="rId44" tooltip="Microsoft Online" display="https://en.wikipedia.org/wiki/Microsoft_Online"/>
+    <hyperlink ref="E30" r:id="rId45" tooltip="Canada" display="https://en.wikipedia.org/wiki/Canada"/>
+    <hyperlink ref="A30" r:id="rId46" tooltip="Shopify" display="https://en.wikipedia.org/wiki/Shopify"/>
+    <hyperlink ref="E29" r:id="rId47" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A29" r:id="rId48" tooltip="CSDN" display="https://en.wikipedia.org/wiki/CSDN"/>
+    <hyperlink ref="E28" r:id="rId49" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A28" r:id="rId50" tooltip="Alipay" display="https://en.wikipedia.org/wiki/Alipay"/>
+    <hyperlink ref="E27" r:id="rId51" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A27" r:id="rId52" tooltip="Instagram" display="https://en.wikipedia.org/wiki/Instagram"/>
+    <hyperlink ref="E26" r:id="rId53" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A26" r:id="rId54" tooltip="Microsoft Office" display="https://en.wikipedia.org/wiki/Microsoft_Office"/>
+    <hyperlink ref="E25" r:id="rId55" tooltip="Russia" display="https://en.wikipedia.org/wiki/Russia"/>
+    <hyperlink ref="A25" r:id="rId56" tooltip="VK (service)" display="https://en.wikipedia.org/wiki/VK_(service)"/>
+    <hyperlink ref="E24" r:id="rId57" tooltip="Indonesia" display="https://en.wikipedia.org/wiki/Indonesia"/>
+    <hyperlink ref="A24" r:id="rId58" tooltip="Okezone" display="https://en.wikipedia.org/wiki/Okezone"/>
+    <hyperlink ref="E23" r:id="rId59" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A23" r:id="rId60" tooltip="Microsoft" display="https://en.wikipedia.org/wiki/Microsoft"/>
+    <hyperlink ref="E22" r:id="rId61" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A22" r:id="rId62" tooltip="Xinhua News Agency" display="https://en.wikipedia.org/wiki/Xinhua_News_Agency"/>
+    <hyperlink ref="E21" r:id="rId63" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A21" r:id="rId64" tooltip="Netflix" display="https://en.wikipedia.org/wiki/Netflix"/>
+    <hyperlink ref="E20" r:id="rId65" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A20" r:id="rId66" tooltip="Windows Live" display="https://en.wikipedia.org/wiki/Windows_Live"/>
+    <hyperlink ref="E19" r:id="rId67" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A19" r:id="rId68" tooltip="Reddit" display="https://en.wikipedia.org/wiki/Reddit"/>
+    <hyperlink ref="E18" r:id="rId69" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A18" r:id="rId70" tooltip="Zoom Video Communications" display="https://en.wikipedia.org/wiki/Zoom_Video_Communications"/>
+    <hyperlink ref="E17" r:id="rId71" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A17" r:id="rId72" tooltip="Sina Weibo" display="https://en.wikipedia.org/wiki/Sina_Weibo"/>
+    <hyperlink ref="E16" r:id="rId73" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A16" r:id="rId74" tooltip="Sina Corp" display="https://en.wikipedia.org/wiki/Sina_Corp"/>
+    <hyperlink ref="E15" r:id="rId75" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A15" r:id="rId76" tooltip="Wikipedia" display="https://en.wikipedia.org/wiki/Wikipedia"/>
+    <hyperlink ref="E14" r:id="rId77" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A14" r:id="rId78" tooltip="Amazon (company)" display="https://en.wikipedia.org/wiki/Amazon_(company)"/>
+    <hyperlink ref="E13" r:id="rId79" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A13" r:id="rId80" tooltip="Yahoo!" display="https://en.wikipedia.org/wiki/Yahoo!"/>
+    <hyperlink ref="E12" r:id="rId81" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A12" r:id="rId82" tooltip="Jingdong Mall" display="https://en.wikipedia.org/wiki/Jingdong_Mall"/>
+    <hyperlink ref="E11" r:id="rId83" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A11" r:id="rId84" tooltip="Haosou" display="https://en.wikipedia.org/wiki/Haosou"/>
+    <hyperlink ref="E10" r:id="rId85" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A10" r:id="rId86" tooltip="Taobao" display="https://en.wikipedia.org/wiki/Taobao"/>
+    <hyperlink ref="E9" r:id="rId87" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A9" r:id="rId88" tooltip="Sohu" display="https://en.wikipedia.org/wiki/Sohu"/>
+    <hyperlink ref="E8" r:id="rId89" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A8" r:id="rId90" tooltip="Tencent QQ" display="https://en.wikipedia.org/wiki/Tencent_QQ"/>
+    <hyperlink ref="E7" r:id="rId91" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A7" r:id="rId92" tooltip="Facebook" display="https://en.wikipedia.org/wiki/Facebook"/>
+    <hyperlink ref="E6" r:id="rId93" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A6" r:id="rId94" tooltip="Baidu" display="https://en.wikipedia.org/wiki/Baidu"/>
+    <hyperlink ref="E5" r:id="rId95" tooltip="China" display="https://en.wikipedia.org/wiki/China"/>
+    <hyperlink ref="A5" r:id="rId96" tooltip="Tmall" display="https://en.wikipedia.org/wiki/Tmall"/>
+    <hyperlink ref="E4" r:id="rId97" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A4" r:id="rId98" tooltip="YouTube" display="https://en.wikipedia.org/wiki/YouTube"/>
+    <hyperlink ref="E3" r:id="rId99" tooltip="United States" display="https://en.wikipedia.org/wiki/United_States"/>
+    <hyperlink ref="A3" r:id="rId100" tooltip="Google Search" display="https://en.wikipedia.org/wiki/Google_Search"/>
+    <hyperlink ref="C2" r:id="rId101" location="cite_note-Alexa-2" display="https://en.wikipedia.org/wiki/List_of_most_popular_websites - cite_note-Alexa-2"/>
+    <hyperlink ref="C1" r:id="rId102" tooltip="Alexa Internet" display="https://en.wikipedia.org/wiki/Alexa_Internet"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId103"/>
+</worksheet>
 </file>